--- a/data/CreateAccount.xlsx
+++ b/data/CreateAccount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\makaia_framework-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75688AD9-8C6C-4A6B-BE51-1F77494896DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED9A5D-4F3F-48E7-8958-3F031BA83040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Bhuvanesh</t>
   </si>
   <si>
-    <t>Java@2025</t>
+    <t>Qeagle@2025</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
